--- a/MoPanda/data/core/Rel-k/MICP - 23H.xlsx
+++ b/MoPanda/data/core/Rel-k/MICP - 23H.xlsx
@@ -826,7 +826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -852,7 +852,22 @@
       </c>
       <c r="D1" s="8" t="inlineStr">
         <is>
+          <t>Capillary Pressure_Reservoir (psi)</t>
+        </is>
+      </c>
+      <c r="E1" s="8" t="inlineStr">
+        <is>
           <t>Capillary Pressure_Reservoir (MPa)</t>
+        </is>
+      </c>
+      <c r="F1" s="8" t="inlineStr">
+        <is>
+          <t>Normalized Wetting-phase Saturation</t>
+        </is>
+      </c>
+      <c r="G1" s="8" t="inlineStr">
+        <is>
+          <t>Normalized Wetting-phase Saturation_imbibition</t>
         </is>
       </c>
     </row>
@@ -867,7 +882,16 @@
         <v>0.00133758344</v>
       </c>
       <c r="D2" t="n">
+        <v>0.1347222222222222</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.0009288773888888887</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.36640512558795</v>
       </c>
     </row>
     <row r="3">
@@ -881,7 +905,16 @@
         <v>0.00267516688</v>
       </c>
       <c r="D3" t="n">
+        <v>0.2694444444444444</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.001857754777777777</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.36640512558795</v>
       </c>
     </row>
     <row r="4">
@@ -895,7 +928,16 @@
         <v>0.00400585556</v>
       </c>
       <c r="D4" t="n">
+        <v>0.4034722222222221</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.002781844138888888</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9865588947304504</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.34803913045407</v>
       </c>
     </row>
     <row r="5">
@@ -909,7 +951,16 @@
         <v>0.005343439</v>
       </c>
       <c r="D5" t="n">
+        <v>0.5381944444444443</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.003710721527777777</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9442256940216821</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.290194828023066</v>
       </c>
     </row>
     <row r="6">
@@ -923,7 +974,16 @@
         <v>0.00668102244</v>
       </c>
       <c r="D6" t="n">
+        <v>0.6729166666666665</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.004639598916666666</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8082444187479679</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.104389316505077</v>
       </c>
     </row>
     <row r="7">
@@ -937,7 +997,16 @@
         <v>0.0093768736</v>
       </c>
       <c r="D7" t="n">
+        <v>0.9444444444444443</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.006511717777777776</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.4808618217083159</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.657052057881802</v>
       </c>
     </row>
     <row r="8">
@@ -951,7 +1020,16 @@
         <v>0.0119968824</v>
       </c>
       <c r="D8" t="n">
+        <v>1.208333333333333</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.008331168333333331</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3051965860042391</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.417022179428136</v>
       </c>
     </row>
     <row r="9">
@@ -965,7 +1043,16 @@
         <v>0.0160647908</v>
       </c>
       <c r="D9" t="n">
+        <v>1.618055555555555</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.01115610472222222</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2280904294474055</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.3116639318944916</v>
       </c>
     </row>
     <row r="10">
@@ -979,7 +1066,16 @@
         <v>0.0200637516</v>
       </c>
       <c r="D10" t="n">
+        <v>2.020833333333333</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.01393316083333333</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1784067043757038</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.2437758352982158</v>
       </c>
     </row>
     <row r="11">
@@ -993,7 +1089,16 @@
         <v>0.0253727168</v>
       </c>
       <c r="D11" t="n">
+        <v>2.555555555555555</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.01761994222222222</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1467558707568098</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.2005279740122277</v>
       </c>
     </row>
     <row r="12">
@@ -1007,7 +1112,16 @@
         <v>0.032060634</v>
       </c>
       <c r="D12" t="n">
+        <v>3.229166666666666</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.02226432916666667</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1274793316176014</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.1741884121288166</v>
       </c>
     </row>
     <row r="13">
@@ -1021,7 +1135,16 @@
         <v>0.0400585556</v>
       </c>
       <c r="D13" t="n">
+        <v>4.034722222222221</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.02781844138888888</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1113740940787144</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.1521821330068699</v>
       </c>
     </row>
     <row r="14">
@@ -1035,7 +1158,16 @@
         <v>0.0481254248</v>
       </c>
       <c r="D14" t="n">
+        <v>4.847222222222221</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.03342043388888889</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.09723455852985345</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1328617991594733</v>
       </c>
     </row>
     <row r="15">
@@ -1049,7 +1181,16 @@
         <v>0.06412126800000001</v>
       </c>
       <c r="D15" t="n">
+        <v>6.458333333333332</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.04452865833333333</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.08482080399473603</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1158995813348982</v>
       </c>
     </row>
     <row r="16">
@@ -1063,7 +1204,16 @@
         <v>0.08411607199999999</v>
       </c>
       <c r="D16" t="n">
+        <v>8.47222222222222</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.05841393888888887</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.07392219271251722</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.1010076630170838</v>
       </c>
     </row>
     <row r="17">
@@ -1077,7 +1227,16 @@
         <v>0.104110876</v>
       </c>
       <c r="D17" t="n">
+        <v>10.48611111111111</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.07229921944444442</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.06435379601634565</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.08793335672777611</v>
       </c>
     </row>
     <row r="18">
@@ -1091,7 +1250,16 @@
         <v>0.136516248</v>
       </c>
       <c r="D18" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.09480294999999998</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.05595325644625514</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.07645481640150004</v>
       </c>
     </row>
     <row r="19">
@@ -1105,7 +1273,16 @@
         <v>0.173747952</v>
       </c>
       <c r="D19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.1206583</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.04857803285243327</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.06637727308054465</v>
       </c>
     </row>
     <row r="20">
@@ -1119,7 +1296,16 @@
         <v>0.22063232</v>
       </c>
       <c r="D20" t="n">
+        <v>22.22222222222222</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.1532168888888888</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.04210298174351027</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.05752973005686833</v>
       </c>
     </row>
     <row r="21">
@@ -1133,7 +1319,16 @@
         <v>0.280616732</v>
       </c>
       <c r="D21" t="n">
+        <v>28.26388888888889</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.1948727305555555</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.03641823383996366</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04976206138378689</v>
       </c>
     </row>
     <row r="22">
@@ -1147,7 +1342,16 @@
         <v>0.3605959479999999</v>
       </c>
       <c r="D22" t="n">
+        <v>36.31944444444444</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.2504138527777777</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.03142732980179421</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04294246452471455</v>
       </c>
     </row>
     <row r="23">
@@ -1161,7 +1365,16 @@
         <v>0.461259444</v>
       </c>
       <c r="D23" t="n">
+        <v>46.45833333333333</v>
+      </c>
+      <c r="E23" t="n">
         <v>0.3203190583333333</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.02704558349732265</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03695522391525854</v>
       </c>
     </row>
     <row r="24">
@@ -1175,7 +1388,16 @@
         <v>0.5881230279999999</v>
       </c>
       <c r="D24" t="n">
+        <v>59.2361111111111</v>
+      </c>
+      <c r="E24" t="n">
         <v>0.4084187694444443</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.02319864504090015</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03169874749058145</v>
       </c>
     </row>
     <row r="25">
@@ -1189,7 +1411,16 @@
         <v>0.75152884</v>
       </c>
       <c r="D25" t="n">
+        <v>75.69444444444443</v>
+      </c>
+      <c r="E25" t="n">
         <v>0.5218950277777776</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.01982123921701664</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02708384286163642</v>
       </c>
     </row>
     <row r="26">
@@ -1203,7 +1434,16 @@
         <v>0.95837164</v>
       </c>
       <c r="D26" t="n">
+        <v>96.52777777777776</v>
+      </c>
+      <c r="E26" t="n">
         <v>0.665535861111111</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.01685605788427152</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02303220389027579</v>
       </c>
     </row>
     <row r="27">
@@ -1217,7 +1457,16 @@
         <v>1.21347776</v>
       </c>
       <c r="D27" t="n">
+        <v>122.2222222222222</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.8426928888888887</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.01425278756541191</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01947508198329504</v>
       </c>
     </row>
     <row r="28">
@@ -1231,7 +1480,16 @@
         <v>1.551321</v>
       </c>
       <c r="D28" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="E28" t="n">
         <v>1.07730625</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0119672557234924</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.01635211955980175</v>
       </c>
     </row>
     <row r="29">
@@ -1245,7 +1503,16 @@
         <v>1.97879612</v>
       </c>
       <c r="D29" t="n">
+        <v>199.3055555555555</v>
+      </c>
+      <c r="E29" t="n">
         <v>1.374163972222222</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.009960681238089568</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01361032589807331</v>
       </c>
     </row>
     <row r="30">
@@ -1259,7 +1526,16 @@
         <v>2.52348216</v>
       </c>
       <c r="D30" t="n">
+        <v>254.1666666666666</v>
+      </c>
+      <c r="E30" t="n">
         <v>1.752418166666666</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.008199016363586383</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.01120317798398391</v>
       </c>
     </row>
     <row r="31">
@@ -1273,7 +1549,16 @@
         <v>3.21985292</v>
       </c>
       <c r="D31" t="n">
+        <v>324.3055555555555</v>
+      </c>
+      <c r="E31" t="n">
         <v>2.236008972222222</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.006652369003802193</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.009089831104097723</v>
       </c>
     </row>
     <row r="32">
@@ -1287,7 +1572,16 @@
         <v>4.1023822</v>
       </c>
       <c r="D32" t="n">
+        <v>413.1944444444443</v>
+      </c>
+      <c r="E32" t="n">
         <v>2.848876527777777</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.005294495500079276</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.007234425788710661</v>
       </c>
     </row>
     <row r="33">
@@ -1301,7 +1595,16 @@
         <v>5.2400176</v>
       </c>
       <c r="D33" t="n">
+        <v>527.7777777777777</v>
+      </c>
+      <c r="E33" t="n">
         <v>3.63890111111111</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.004102355326400248</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.005605479344976327</v>
       </c>
     </row>
     <row r="34">
@@ -1315,7 +1618,16 @@
         <v>6.853391439999999</v>
       </c>
       <c r="D34" t="n">
+        <v>690.2777777777776</v>
+      </c>
+      <c r="E34" t="n">
         <v>4.75929961111111</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.003055720135564987</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.004175351655598305</v>
       </c>
     </row>
     <row r="35">
@@ -1329,7 +1641,16 @@
         <v>8.963187999999999</v>
       </c>
       <c r="D35" t="n">
+        <v>902.7777777777776</v>
+      </c>
+      <c r="E35" t="n">
         <v>6.22443611111111</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.002136830522681745</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.002919776178705115</v>
       </c>
     </row>
     <row r="36">
@@ -1343,7 +1664,16 @@
         <v>11.721092</v>
       </c>
       <c r="D36" t="n">
+        <v>1180.555555555555</v>
+      </c>
+      <c r="E36" t="n">
         <v>8.139647222222219</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.001330094681904703</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.001817448190871861</v>
       </c>
     </row>
     <row r="37">
@@ -1357,7 +1687,16 @@
         <v>15.3063672</v>
       </c>
       <c r="D37" t="n">
+        <v>1541.666666666666</v>
+      </c>
+      <c r="E37" t="n">
         <v>10.62942166666667</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0006218238432003197</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0008496632865617147</v>
       </c>
     </row>
     <row r="38">
@@ -1371,7 +1710,16 @@
         <v>20.0637516</v>
       </c>
       <c r="D38" t="n">
+        <v>2020.833333333333</v>
+      </c>
+      <c r="E38" t="n">
         <v>13.93316083333333</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1385,7 +1733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1426,7 +1774,17 @@
       </c>
       <c r="G1" s="8" t="inlineStr">
         <is>
-          <t>lambda</t>
+          <t>lambda_d</t>
+        </is>
+      </c>
+      <c r="H1" s="8" t="inlineStr">
+        <is>
+          <t>lambda_i</t>
+        </is>
+      </c>
+      <c r="I1" s="8" t="inlineStr">
+        <is>
+          <t>Interpolated_Capillary_Pressure</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6903612245273768</v>
+        <v>0.7329676794733466</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1444,1076 +1802,1440 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1646794781529835</v>
+        <v>0.9</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08008733342311725</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.2694444444444444</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9804172235957765</v>
+        <v>0.9809849552476596</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6699494518415495</v>
+        <v>0.7194022739154277</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9082162144877197</v>
+        <v>0.9516561569535605</v>
       </c>
       <c r="D3" t="n">
-        <v>3.519771707490044e-05</v>
+        <v>1.745217760824454e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1422949574327241</v>
+        <v>0.856504535427861</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09343269589797351</v>
+        <v>1.744656437513644e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.4214647450054209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9608344471915532</v>
+        <v>0.9619699104953191</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6495376791557222</v>
+        <v>0.7058368683575088</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8232559847057125</v>
+        <v>0.9047051009203103</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0002711148079277175</v>
+        <v>0.0001376062306259678</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1223985164866675</v>
+        <v>0.8142614786542663</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1077903827305765</v>
+        <v>0.0001375630904786808</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4822325727671891</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9412516707873297</v>
+        <v>0.9429548657429787</v>
       </c>
       <c r="B5" t="n">
-        <v>0.629125906469895</v>
+        <v>0.6922714627995898</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7447357317949705</v>
+        <v>0.859135059526013</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0008810104635931562</v>
+        <v>0.0004576715098567412</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1047789432735131</v>
+        <v>0.7732602645619461</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1231355017810409</v>
+        <v>0.0004575317627856108</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5396906173779138</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9216688943831063</v>
+        <v>0.9239398209906383</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6087141337840675</v>
+        <v>0.6787060572416709</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6722862043993602</v>
+        <v>0.8149341099165204</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002010773889041608</v>
+        <v>0.001068943660060179</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08923706528676457</v>
+        <v>0.7334901928049788</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1394420213176186</v>
+        <v>0.001068626018421349</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5586086385841178</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9020861179788828</v>
+        <v>0.9049247762382979</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5883023610982403</v>
+        <v>0.6651406516837519</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6055522248816499</v>
+        <v>0.7720901734981016</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003781621424729216</v>
+        <v>0.002056892108760614</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07558542048508467</v>
+        <v>0.694940423079806</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1566835991230526</v>
+        <v>0.002056297791429971</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.5775266597903217</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8825033415746595</v>
+        <v>0.8859097314859574</v>
       </c>
       <c r="B8" t="n">
-        <v>0.567890588412413</v>
+        <v>0.6515752461258331</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5441924348409449</v>
+        <v>0.7305910103720676</v>
       </c>
       <c r="D8" t="n">
-        <v>0.006292635269539612</v>
+        <v>0.003501249314048151</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06364792680845131</v>
+        <v>0.6575999701212993</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1748342953868466</v>
+        <v>0.003500266513461165</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.5964446809965258</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.862920565170436</v>
+        <v>0.866894686733617</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5474788157265855</v>
+        <v>0.6380098405679141</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4878790399146851</v>
+        <v>0.6904242134385207</v>
       </c>
       <c r="D9" t="n">
-        <v>0.009623147917352762</v>
+        <v>0.005476101861607404</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0532595502262526</v>
+        <v>0.6214576984012409</v>
       </c>
       <c r="F9" t="n">
-        <v>0.193869175331587</v>
+        <v>0.005474609961024691</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.6153627022027297</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.8433377887662126</v>
+        <v>0.8478796419812766</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5270670430407582</v>
+        <v>0.6244444350099951</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4362975538475977</v>
+        <v>0.6515772021413341</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01383497643527242</v>
+        <v>0.008049983508542777</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04426597125944852</v>
+        <v>0.5865023165041175</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2137648075634899</v>
+        <v>0.008047857046789939</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.6342807234089336</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8237550123619892</v>
+        <v>0.8288645972289361</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5066552703549311</v>
+        <v>0.6108790294520763</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3891465418091456</v>
+        <v>0.6140372158234011</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01897451072785296</v>
+        <v>0.01128597027971714</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03652324991447753</v>
+        <v>0.552722371152379</v>
       </c>
       <c r="F11" t="n">
-        <v>0.234499664181811</v>
+        <v>0.01128308266055105</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.6531987446151377</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8041722359577658</v>
+        <v>0.8098495524765957</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4862434976691037</v>
+        <v>0.5973136238941573</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3461373629401291</v>
+        <v>0.5777913066576792</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02507465994851817</v>
+        <v>0.01524177773139968</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02989748896161017</v>
+        <v>0.5201062408501461</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2560544287289219</v>
+        <v>0.01523800467455163</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.6721167658213416</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.7845894595535423</v>
+        <v>0.7908345077242553</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4658317249832763</v>
+        <v>0.5837482183362384</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3069939121081356</v>
+        <v>0.542826332115574</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03215666123679407</v>
+        <v>0.01996986050716185</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02426449548486634</v>
+        <v>0.488642129110769</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2784122181130209</v>
+        <v>0.01996508323800034</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.6880840858004647</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.765006683149319</v>
+        <v>0.7718194629719148</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4454199522974491</v>
+        <v>0.5701828127783195</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2714523608504958</v>
+        <v>0.5091289469296237</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04023175497802212</v>
+        <v>0.02551751432232917</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01950944062432073</v>
+        <v>0.4583180572295181</v>
       </c>
       <c r="F14" t="n">
-        <v>0.301558724688971</v>
+        <v>0.02551162249697121</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.7039211346278993</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.7454239067450955</v>
+        <v>0.7528044182195744</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4250081796116218</v>
+        <v>0.5566174072204005</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2392608974822987</v>
+        <v>0.4766855945021998</v>
       </c>
       <c r="D15" t="n">
-        <v>0.04930273080091793</v>
+        <v>0.03192698052607673</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01552651742449801</v>
+        <v>0.429121856557964</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3254822847400422</v>
+        <v>0.03191987488865599</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.7197581834553337</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.7258411303408721</v>
+        <v>0.7337893734672341</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4045964069257944</v>
+        <v>0.5430520016624816</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2101794663458222</v>
+        <v>0.4454824977058796</v>
       </c>
       <c r="D16" t="n">
-        <v>0.05936534854773732</v>
+        <v>0.03923555340467404</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01221859669444914</v>
+        <v>0.4010411602311527</v>
       </c>
       <c r="F16" t="n">
-        <v>0.350173879664874</v>
+        <v>0.03922714817334626</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.7355952322827681</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.7062583539366487</v>
+        <v>0.7147743287148935</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3841846342399672</v>
+        <v>0.5294865961045626</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1839795061764329</v>
+        <v>0.415505649014146</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0704096384719595</v>
+        <v>0.04747569040570308</v>
       </c>
       <c r="E17" t="n">
-        <v>0.009496880775819474</v>
+        <v>0.374063394292384</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3756270762403635</v>
+        <v>0.04746591538383389</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.7514322811102028</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.6866755775324253</v>
+        <v>0.6957592839625532</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3637728615541398</v>
+        <v>0.5159211905466436</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1604436875586185</v>
+        <v>0.3867407998929274</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0824210849393435</v>
+        <v>0.05667512548161791</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00728055510453164</v>
+        <v>0.3481757681530693</v>
       </c>
       <c r="F18" t="n">
-        <v>0.401837912403096</v>
+        <v>0.05666392789045401</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.7672693299376373</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.6670928011282018</v>
+        <v>0.6767442392102128</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3433610888683124</v>
+        <v>0.5023557849887248</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1393656494442902</v>
+        <v>0.359173449374008</v>
       </c>
       <c r="D19" t="n">
-        <v>0.09538169793002292</v>
+        <v>0.06685698577216148</v>
       </c>
       <c r="E19" t="n">
-        <v>0.005496437439316496</v>
+        <v>0.3233652643166177</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4288047350702312</v>
+        <v>0.06684433180113396</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.7831063787650717</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.6475100247239785</v>
+        <v>0.6577291944578723</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3229493161824853</v>
+        <v>0.4887903794308058</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1205497347038415</v>
+        <v>0.3327888317202147</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1092709766620418</v>
+        <v>0.07803991186938447</v>
       </c>
       <c r="E20" t="n">
-        <v>0.004078624615853833</v>
+        <v>0.2996186272852813</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4565279966064875</v>
+        <v>0.07802578794003058</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.7989434275925064</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.627927248319755</v>
+        <v>0.6387141497055319</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3025375434966579</v>
+        <v>0.4752249738728869</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1038107246786509</v>
+        <v>0.3075719030792095</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1240667696804707</v>
+        <v>0.09023818193687917</v>
       </c>
       <c r="E21" t="n">
-        <v>0.002968136668246874</v>
+        <v>0.2769223515571282</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4850100166382859</v>
+        <v>0.09022259567619696</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.8147804764199408</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6083444719155315</v>
+        <v>0.6196991049531915</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2821257708108305</v>
+        <v>0.461659568314968</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08897357270175052</v>
+        <v>0.2835073270072407</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1397460357810617</v>
+        <v>0.1034618399870586</v>
       </c>
       <c r="E22" t="n">
-        <v>0.002112558139309868</v>
+        <v>0.2552626686063803</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5142547160208613</v>
+        <v>0.1034448209059261</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8306175252473753</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.5887616955113082</v>
+        <v>0.600684060200851</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2617139981250032</v>
+        <v>0.4480941627570491</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07587313655122574</v>
+        <v>0.2605794587258167</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1562855101633953</v>
+        <v>0.1177168286577338</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001465676376847954</v>
+        <v>0.2346255327238016</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5442673298812685</v>
+        <v>0.1176984285298304</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.8464545740748098</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.5691789191070847</v>
+        <v>0.5816690154485106</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2413022254391759</v>
+        <v>0.4345287571991301</v>
       </c>
       <c r="C24" t="n">
-        <v>0.06435390979855136</v>
+        <v>0.2387723279522733</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1736622802357465</v>
+        <v>0.1330051268729469</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0009871165836075569</v>
+        <v>0.2149966055740325</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5750541067923683</v>
+        <v>0.1329854198094085</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8622916229022444</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.5495961427028613</v>
+        <v>0.5626539706961702</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2208904527533486</v>
+        <v>0.4209633516412112</v>
       </c>
       <c r="C25" t="n">
-        <v>0.05426975201146376</v>
+        <v>0.2180696201187725</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1918542755225571</v>
+        <v>0.1493248928243495</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0006419733522901309</v>
+        <v>0.1963612393029707</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6066220012835493</v>
+        <v>0.1493039750391729</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8781286717296789</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.5300133662986379</v>
+        <v>0.5436389259438297</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2004786800675214</v>
+        <v>0.4073979460832923</v>
       </c>
       <c r="C26" t="n">
-        <v>0.04548361776809159</v>
+        <v>0.198454655762269</v>
       </c>
       <c r="D26" t="n">
-        <v>0.210840676155602</v>
+        <v>0.1666706127700721</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0004004383717261875</v>
+        <v>0.178704457999499</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6389783670679008</v>
+        <v>0.1666486020310523</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.8939657205571134</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.5104305898944145</v>
+        <v>0.5246238811914893</v>
       </c>
       <c r="B27" t="n">
-        <v>0.180066907381694</v>
+        <v>0.3938325405253733</v>
       </c>
       <c r="C27" t="n">
-        <v>0.03786728443588241</v>
+        <v>0.1799103678290074</v>
       </c>
       <c r="D27" t="n">
-        <v>0.230602244461798</v>
+        <v>0.1850332562201809</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0002374239327814607</v>
+        <v>0.1620109372807764</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6721306585692328</v>
+        <v>0.1850102909799246</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.909802769384548</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.490847813490191</v>
+        <v>0.5056088364391489</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1596551346958666</v>
+        <v>0.3802671349674544</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0313010786653168</v>
+        <v>0.1624192765892691</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2511215841943246</v>
+        <v>0.2044004381642353</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0001321817880248323</v>
+        <v>0.1462649817272491</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7060861485750181</v>
+        <v>0.2043766763655418</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.9256398182119824</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4712650370859676</v>
+        <v>0.4865937916868085</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1392433620100393</v>
+        <v>0.3667017294095354</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02567360154444346</v>
+        <v>0.145963461798928</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2723833319894903</v>
+        <v>0.2247565891007682</v>
       </c>
       <c r="E29" t="n">
-        <v>6.791682025504279e-05</v>
+        <v>0.1314504998402795</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7408516701365094</v>
+        <v>0.2247322066504041</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.9414768670394169</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4516822606817442</v>
+        <v>0.467578746934468</v>
       </c>
       <c r="B30" t="n">
-        <v>0.118831589324212</v>
+        <v>0.3531363238516165</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02088145235583509</v>
+        <v>0.1305245316705694</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2943742856698151</v>
+        <v>0.2460831337554343</v>
       </c>
       <c r="E30" t="n">
-        <v>3.139483982311833e-05</v>
+        <v>0.117550976128858</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7764333912056391</v>
+        <v>0.2460583226600631</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.9677541783500169</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4320994842775208</v>
+        <v>0.4485637021821276</v>
       </c>
       <c r="B31" t="n">
-        <v>0.09841981663838473</v>
+        <v>0.3395709182936976</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01682895087257153</v>
+        <v>0.116083588124023</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3170834740543848</v>
+        <v>0.2683586795304201</v>
       </c>
       <c r="E31" t="n">
-        <v>1.2543639306671e-05</v>
+        <v>0.1045494398482285</v>
       </c>
       <c r="F31" t="n">
-        <v>0.812836630972954</v>
+        <v>0.2683336456881751</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.9964389146457372</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.4125167078732973</v>
+        <v>0.4295486574297872</v>
       </c>
       <c r="B32" t="n">
-        <v>0.07800804395255735</v>
+        <v>0.3260055127357787</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01342785812421036</v>
+        <v>0.1026211876680472</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3405021729809646</v>
+        <v>0.291559215920911</v>
       </c>
       <c r="E32" t="n">
-        <v>4.04615049043035e-06</v>
+        <v>0.09242842980692841</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8500657275084124</v>
+        <v>0.2915341765618361</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.025123650941457</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.392933931469074</v>
+        <v>0.4105336126774467</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0575962712667301</v>
+        <v>0.3124401071778597</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01059709555728712</v>
+        <v>0.09011729711308417</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3646238722910251</v>
+        <v>0.3156583263765023</v>
       </c>
       <c r="E33" t="n">
-        <v>9.241023158016826e-07</v>
+        <v>0.08116995452206588</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8881239672121974</v>
+        <v>0.3156335071448383</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.053808387237178</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.3733511550648505</v>
+        <v>0.3915185679251063</v>
       </c>
       <c r="B34" t="n">
-        <v>0.03718449858090278</v>
+        <v>0.2988747016199408</v>
       </c>
       <c r="C34" t="n">
-        <v>0.008262462507552032</v>
+        <v>0.07855124311754264</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3894441985791516</v>
+        <v>0.3406274143923231</v>
       </c>
       <c r="E34" t="n">
-        <v>1.098147263933647e-07</v>
+        <v>0.0707554468248837</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9270135879731528</v>
+        <v>0.3406030460634105</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.082493123532898</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.353768378660627</v>
+        <v>0.3725035231727659</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01677272589507541</v>
+        <v>0.2853092960620219</v>
       </c>
       <c r="C35" t="n">
-        <v>0.00635635189271612</v>
+        <v>0.06790165430983962</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4149607985628189</v>
+        <v>0.3664359460087055</v>
       </c>
       <c r="E35" t="n">
-        <v>2.277942852174155e-09</v>
+        <v>0.06116571178436413</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9667358703416316</v>
+        <v>0.3664122608331287</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.111177859828618</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.3341856022564037</v>
+        <v>0.3534884784204254</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.003639046790751793</v>
+        <v>0.2717438905041029</v>
       </c>
       <c r="C36" t="n">
-        <v>0.00481746402471772</v>
+        <v>0.05814639438049543</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4411731879878484</v>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+        <v>0.3930517114114602</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.05238086650335747</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.3930289390790307</v>
+      </c>
       <c r="G36" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.139862596124339</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.3146028258521802</v>
+        <v>0.334473433668085</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.02405081947657917</v>
+        <v>0.258178484946184</v>
       </c>
       <c r="C37" t="n">
-        <v>0.00359051842914202</v>
+        <v>0.04926248406580014</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4680825710498046</v>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+        <v>0.4204411090039609</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.04438026991602095</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.4204194722202907</v>
+      </c>
       <c r="G37" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.168547332420059</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.2950200494479568</v>
+        <v>0.3154583889157446</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.04446259216240654</v>
+        <v>0.244613079388265</v>
       </c>
       <c r="C38" t="n">
-        <v>0.00262596354605546</v>
+        <v>0.04122600929046981</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4956916353830859</v>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+        <v>0.4485694562370036</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.03714244012636468</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.4485491659058728</v>
+      </c>
       <c r="G38" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.19723206871578</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.2754372730437334</v>
+        <v>0.2964433441634041</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.06487436484823374</v>
+        <v>0.2310476738303461</v>
       </c>
       <c r="C39" t="n">
-        <v>0.001879684170666559</v>
+        <v>0.0340120118131577</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5240043277487515</v>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+        <v>0.4774013327394976</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.03064495599604022</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.477382582745163</v>
+      </c>
       <c r="G39" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.270530386430924</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.25585449663951</v>
+        <v>0.2774282994110637</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.08528613753406111</v>
+        <v>0.2174822682724272</v>
       </c>
       <c r="C40" t="n">
-        <v>0.001312706473249259</v>
+        <v>0.02759435738418899</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5530256156407026</v>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+        <v>0.5069009630604363</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.02486433848772528</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.5068839246457576</v>
+      </c>
       <c r="G40" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.371995335965924</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.2362717202352865</v>
+        <v>0.2584132546587233</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.1056979102198885</v>
+        <v>0.2039168627145083</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0008909004147936735</v>
+        <v>0.02194557444482875</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5827612401297024</v>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+        <v>0.5370326488833289</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.01977590548721419</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.5370174646226392</v>
+      </c>
       <c r="G41" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.473460285500924</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.2166889438310631</v>
+        <v>0.2393982099063829</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.1261096829057158</v>
+        <v>0.1903514571565893</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0005846793466897663</v>
+        <v>0.01703665336782149</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6132174653784693</v>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+        <v>0.56776126436916</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.01535359109871928</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.5677480417400831</v>
+      </c>
       <c r="G42" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1.574925235035923</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.1971061674268397</v>
+        <v>0.2203831651540424</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.146521455591543</v>
+        <v>0.1767860515986704</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0003686965477311173</v>
+        <v>0.01283679143335537</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6444008303921795</v>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+        <v>0.5990528341350573</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.01156971607941392</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.5990416387026331</v>
+      </c>
       <c r="G43" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.70705295736683</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.1775233910226163</v>
+        <v>0.201368120401702</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.1669332282773704</v>
+        <v>0.1632206460407515</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0002215384074495631</v>
+        <v>0.009313060776930603</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6763179087219666</v>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+        <v>0.6308752227900734</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.008394688911106158</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.6308660710327632</v>
+      </c>
       <c r="G44" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.861851522746376</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.1579406146183928</v>
+        <v>0.1823530756493617</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.1873450009631977</v>
+        <v>0.1496552404828325</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0001254139077160904</v>
+        <v>0.006429962661617447</v>
       </c>
       <c r="D45" t="n">
-        <v>0.708975082021122</v>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+        <v>0.6631989809019475</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.005796604499433832</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.6631918327387069</v>
+      </c>
       <c r="G45" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.016650088125922</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.1383578382141695</v>
+        <v>0.1633380308970211</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.207756773649025</v>
+        <v>0.1360898349249136</v>
       </c>
       <c r="C46" t="n">
-        <v>6.583997926348545e-05</v>
+        <v>0.004148805576193713</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7423783335745213</v>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+        <v>0.6959984211010639</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.003740684200766235</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.6959931722355039</v>
+      </c>
       <c r="G46" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.33471133424622</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.118775061809946</v>
+        <v>0.1443229861446808</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.2281685463348523</v>
+        <v>0.1225244293669947</v>
       </c>
       <c r="C47" t="n">
-        <v>3.13222077186401e-05</v>
+        <v>0.002426792336333215</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7765330681961365</v>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+        <v>0.7292530546405499</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.002188453730909862</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.7292495289551312</v>
+      </c>
       <c r="G47" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.766019690688461</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.09919228540572256</v>
+        <v>0.1253079413923404</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.2485803190206797</v>
+        <v>0.1089590238090757</v>
       </c>
       <c r="C48" t="n">
-        <v>1.303022057227819e-05</v>
+        <v>0.001215582896328418</v>
       </c>
       <c r="D48" t="n">
-        <v>0.811443965240942</v>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+        <v>0.7629496429658637</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.001096448750887367</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.762947585464861</v>
+      </c>
       <c r="G48" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.521326885153536</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.07960950900149921</v>
+        <v>0.1062928966399999</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.2689920917065069</v>
+        <v>0.09539361825115678</v>
       </c>
       <c r="C49" t="n">
-        <v>4.466876939957955e-06</v>
+        <v>0.0004587845081273725</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8471148719456717</v>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+        <v>0.7970854386423926</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.000413953955262133</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.7970845101450845</v>
+      </c>
       <c r="G49" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4.542158188241366</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.06002673259727576</v>
+        <v>0.08727785188765946</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.2894038643923343</v>
+        <v>0.08182821269323792</v>
       </c>
       <c r="C50" t="n">
-        <v>1.130057525139913e-06</v>
+        <v>8.673310103480334e-05</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8835487449697169</v>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+        <v>0.831674255781325</v>
+      </c>
+      <c r="E50" t="n">
+        <v>7.830089101583196e-05</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.831674032965629</v>
+      </c>
       <c r="G50" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6.711891613912892</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.0404439561930523</v>
+        <v>0.06826280713531896</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.3098156370781616</v>
+        <v>0.06826280713531896</v>
       </c>
       <c r="C51" t="n">
-        <v>1.65309817847801e-07</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9207476489977897</v>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+        <v>0.8667634965872081</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.8667634965872081</v>
+      </c>
       <c r="G51" t="n">
-        <v>0.5170760520529891</v>
+        <v>1.425352088595236</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.426157480041112</v>
+      </c>
+      <c r="I51" t="n">
+        <v>10.48611111111111</v>
       </c>
     </row>
   </sheetData>
@@ -2809,9 +3531,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{371554C6-287E-450A-A050-43A6DABF0A93}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE9804C-B030-40A1-98C7-888BC0CD054B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61594304-858E-481D-AAC1-3E7B99808DB9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88B79D9F-F676-445B-AF67-1CC197BFBA4D}"/>
 </file>